--- a/Liceo Cristiano.xlsx
+++ b/Liceo Cristiano.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OBANDO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEDENO\Desktop\Fuentes Gato\RPDWEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
     <sheet name="MIGRACIONES" sheetId="13" r:id="rId11"/>
     <sheet name="Hoja2" sheetId="14" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="149">
   <si>
     <t>Agregar la opcion de banco en proveedor</t>
   </si>
@@ -487,7 +487,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -850,7 +850,7 @@
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
@@ -1196,7 +1196,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" customWidth="1"/>
@@ -1274,7 +1274,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="7"/>
@@ -1355,7 +1355,7 @@
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -2020,7 +2020,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
@@ -2137,7 +2137,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -2217,7 +2217,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
@@ -2245,7 +2245,7 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
@@ -2418,7 +2418,7 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
@@ -2466,17 +2466,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -2485,7 +2487,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -2494,7 +2496,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -2503,7 +2505,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -2512,7 +2514,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -2521,7 +2523,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -2530,7 +2532,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -2539,7 +2541,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -2548,7 +2550,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -2556,8 +2558,11 @@
       <c r="C9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -2566,7 +2571,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -2575,7 +2580,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -2584,7 +2589,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -2593,7 +2598,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -2619,7 +2624,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="71.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2655,7 +2660,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="65.85546875" bestFit="1" customWidth="1"/>
   </cols>

--- a/Liceo Cristiano.xlsx
+++ b/Liceo Cristiano.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="150">
   <si>
     <t>Agregar la opcion de banco en proveedor</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>ingreso por novedad</t>
+  </si>
+  <si>
+    <t>REALIZO</t>
   </si>
 </sst>
 </file>
@@ -2466,149 +2469,158 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="D5" t="s">
+      <c r="C5" s="7"/>
+      <c r="E5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" t="s">
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" t="s">
         <v>107</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Liceo Cristiano.xlsx
+++ b/Liceo Cristiano.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEDENO\Desktop\Fuentes Gato\RPDWEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OBANDO\Desktop\PROYECTOS GITHUB\RPDWEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="157">
   <si>
     <t>Agregar la opcion de banco en proveedor</t>
   </si>
@@ -454,9 +454,6 @@
     <t>REPORTES</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>Levantamiento de informacion para importacion de facturas de eventos.</t>
   </si>
   <si>
@@ -484,13 +481,37 @@
     <t>ingreso por novedad</t>
   </si>
   <si>
-    <t>REALIZO</t>
+    <t>Fecha ini</t>
+  </si>
+  <si>
+    <t>fecha terminada</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>REALIZADO</t>
+  </si>
+  <si>
+    <t>USU. A</t>
+  </si>
+  <si>
+    <t>USU. R</t>
+  </si>
+  <si>
+    <t>USU A.</t>
+  </si>
+  <si>
+    <t>USU R.</t>
+  </si>
+  <si>
+    <t>PENDIENTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -514,7 +535,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,6 +554,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -546,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -567,6 +594,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,341 +876,364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
         <v>52</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F12" t="s">
         <v>51</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
         <v>52</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F13" t="s">
         <v>53</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E13" s="6" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
         <v>25</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
         <v>25</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
         <v>25</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
         <v>21</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
         <v>21</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
         <v>24</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
         <v>24</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
         <v>28</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
         <v>28</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
+    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
         <v>27</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
+    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
         <v>30</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E27" t="s">
+    <row r="28" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
         <v>32</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
+    <row r="29" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
         <v>50</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F29" t="s">
         <v>13</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
+    <row r="31" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
+    <row r="32" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F34" t="s">
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
+    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
+    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E38" t="s">
+    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
+    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E40" t="s">
+    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E41" t="s">
+    <row r="42" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E42" t="s">
+    <row r="43" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
+    <row r="44" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E44" t="s">
+    <row r="45" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E45" t="s">
+    <row r="46" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E46" t="s">
+    <row r="47" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
+    <row r="48" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1199,10 +1251,10 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1211,7 +1263,7 @@
       </c>
       <c r="B2" s="7"/>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1243,7 +1295,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1277,7 +1329,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="7"/>
@@ -1358,7 +1410,7 @@
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -2017,114 +2069,140 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="78.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="78.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" t="s">
         <v>65</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2134,77 +2212,98 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E1" sqref="E1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2217,10 +2316,10 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
@@ -2242,171 +2341,236 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="89.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="89.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="10">
+        <v>43411</v>
+      </c>
+      <c r="H2" s="10">
+        <v>43411</v>
+      </c>
+      <c r="I2" s="10">
+        <v>43411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="10">
+        <v>43411</v>
+      </c>
+      <c r="H3" s="10">
+        <v>43411</v>
+      </c>
+      <c r="I3" s="10">
+        <v>43411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" t="s">
+      <c r="G4" s="10">
+        <v>43411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="D5" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="5"/>
+      <c r="E6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="D6" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="5"/>
+      <c r="E7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="D7" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="E8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="D8" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="E9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="D9" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="E10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="D10" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+      <c r="E11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="D11" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="E12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" t="s">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="F16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2415,52 +2579,83 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" t="s">
+      <c r="L4" s="10">
+        <v>43411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" t="s">
         <v>98</v>
       </c>
+      <c r="L5" s="10">
+        <v>43411</v>
+      </c>
+    </row>
+    <row r="19" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2469,158 +2664,189 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
         <v>149</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
       <c r="B3" t="s">
         <v>63</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>94</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="E5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" t="s">
+      <c r="C6" s="7"/>
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>94</v>
       </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>94</v>
-      </c>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" t="s">
-        <v>107</v>
-      </c>
-      <c r="M9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="2"/>
       <c r="D12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>94</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="7"/>
       <c r="D14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2632,11 +2858,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="71.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2672,7 +2898,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="65.85546875" bestFit="1" customWidth="1"/>
   </cols>

--- a/Liceo Cristiano.xlsx
+++ b/Liceo Cristiano.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="157">
   <si>
     <t>Agregar la opcion de banco en proveedor</t>
   </si>
@@ -2071,8 +2071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2344,7 +2344,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2582,13 +2582,14 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K4" sqref="K4:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2631,6 +2632,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
       <c r="B4" t="s">
         <v>63</v>
       </c>
@@ -2638,17 +2642,26 @@
       <c r="D4" t="s">
         <v>97</v>
       </c>
+      <c r="K4" t="s">
+        <v>151</v>
+      </c>
       <c r="L4" s="10">
         <v>43411</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
       <c r="B5" t="s">
         <v>63</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" t="s">
         <v>98</v>
+      </c>
+      <c r="K5" t="s">
+        <v>151</v>
       </c>
       <c r="L5" s="10">
         <v>43411</v>
@@ -2858,7 +2871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/Liceo Cristiano.xlsx
+++ b/Liceo Cristiano.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO" sheetId="1" r:id="rId1"/>
@@ -878,7 +878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
@@ -1247,7 +1247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2071,8 +2071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2215,7 +2215,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2344,7 +2344,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2680,7 +2680,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Liceo Cristiano.xlsx
+++ b/Liceo Cristiano.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <sheet name="MIGRACIONES" sheetId="13" r:id="rId11"/>
     <sheet name="Hoja2" sheetId="14" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Hoja2!$B$1:$B$55</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -535,7 +538,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,6 +563,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -573,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -596,6 +605,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1247,7 +1257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1404,41 +1414,30 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A2:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="105.7109375" customWidth="1"/>
+    <col min="4" max="4" width="119.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C2" s="7"/>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1450,7 +1449,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1462,19 +1461,19 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1486,7 +1485,7 @@
       </c>
       <c r="C6" s="7"/>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1496,9 +1495,9 @@
       <c r="B7" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="12"/>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1509,8 +1508,8 @@
         <v>63</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="3" t="s">
-        <v>73</v>
+      <c r="D8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1522,7 +1521,7 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1530,23 +1529,23 @@
         <v>131</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="1" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="1" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1558,7 +1557,7 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1570,7 +1569,7 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1582,31 +1581,31 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
+        <v>80</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1616,9 +1615,9 @@
       <c r="B17" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="12"/>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1628,9 +1627,9 @@
       <c r="B18" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="12"/>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1642,7 +1641,7 @@
       </c>
       <c r="C19" s="7"/>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1654,7 +1653,7 @@
       </c>
       <c r="C20" s="7"/>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1666,7 +1665,7 @@
       </c>
       <c r="C21" s="7"/>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1674,23 +1673,23 @@
         <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1698,35 +1697,35 @@
         <v>133</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="C24" s="12"/>
       <c r="D24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="7"/>
+      <c r="C26" s="12"/>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1734,23 +1733,23 @@
         <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1760,33 +1759,33 @@
       <c r="B29" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="12"/>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="C30" s="12"/>
       <c r="D30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>135</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1796,9 +1795,9 @@
       <c r="B32" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="12"/>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1806,14 +1805,14 @@
         <v>135</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>135</v>
       </c>
@@ -1821,8 +1820,11 @@
         <v>94</v>
       </c>
       <c r="C34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>135</v>
       </c>
@@ -1830,20 +1832,17 @@
         <v>94</v>
       </c>
       <c r="C35" s="7"/>
-      <c r="D35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>135</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1855,7 +1854,7 @@
       </c>
       <c r="C37" s="7"/>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1863,23 +1862,23 @@
         <v>135</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>135</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1887,14 +1886,14 @@
         <v>135</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="C40" s="12"/>
       <c r="D40" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>135</v>
       </c>
@@ -1903,10 +1902,10 @@
       </c>
       <c r="C41" s="7"/>
       <c r="D41" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>135</v>
       </c>
@@ -1915,58 +1914,58 @@
       </c>
       <c r="C42" s="7"/>
       <c r="D42" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B43" t="s">
         <v>94</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>136</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>137</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>137</v>
       </c>
@@ -1975,10 +1974,10 @@
       </c>
       <c r="C47" s="7"/>
       <c r="D47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>137</v>
       </c>
@@ -1987,19 +1986,19 @@
       </c>
       <c r="C48" s="7"/>
       <c r="D48" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2011,7 +2010,7 @@
       </c>
       <c r="C50" s="7"/>
       <c r="D50" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2023,7 +2022,7 @@
       </c>
       <c r="C51" s="7"/>
       <c r="D51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2035,7 +2034,7 @@
       </c>
       <c r="C52" s="7"/>
       <c r="D52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2047,7 +2046,7 @@
       </c>
       <c r="C53" s="7"/>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2059,10 +2058,29 @@
       </c>
       <c r="C54" s="7"/>
       <c r="D54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B55">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="IOBANDO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Liceo Cristiano.xlsx
+++ b/Liceo Cristiano.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="157">
   <si>
     <t>Agregar la opcion de banco en proveedor</t>
   </si>
@@ -1417,7 +1417,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -2361,8 +2361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2443,6 +2443,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
       <c r="B4" t="s">
         <v>63</v>
       </c>
@@ -2450,8 +2453,17 @@
       <c r="D4" t="s">
         <v>82</v>
       </c>
+      <c r="F4" t="s">
+        <v>151</v>
+      </c>
       <c r="G4" s="10">
         <v>43411</v>
+      </c>
+      <c r="H4" s="10">
+        <v>43411</v>
+      </c>
+      <c r="I4" s="10">
+        <v>43412</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">

--- a/Liceo Cristiano.xlsx
+++ b/Liceo Cristiano.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO" sheetId="1" r:id="rId1"/>
@@ -1257,7 +1257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1417,8 +1417,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,7 +1639,7 @@
       <c r="B19" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="12"/>
       <c r="D19" t="s">
         <v>82</v>
       </c>
@@ -2361,8 +2361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Liceo Cristiano.xlsx
+++ b/Liceo Cristiano.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OBANDO\Desktop\PROYECTOS GITHUB\RPDWEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEDENO\Desktop\Fuentes Gato\RPDWEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="161">
   <si>
     <t>Agregar la opcion de banco en proveedor</t>
   </si>
@@ -509,12 +509,24 @@
   </si>
   <si>
     <t>PENDIENTE</t>
+  </si>
+  <si>
+    <t>Archivos MTE, DECIMO TERCERO, DECIMO CUARTO, UTILIDADES</t>
+  </si>
+  <si>
+    <t>Archivos IESS, para variacion de sueldos</t>
+  </si>
+  <si>
+    <t>archivo de transferencias bancarias</t>
+  </si>
+  <si>
+    <t>Presupuesto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -892,7 +904,7 @@
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
@@ -1257,11 +1269,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="106.42578125" bestFit="1" customWidth="1"/>
@@ -1339,7 +1351,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="7"/>
@@ -1421,7 +1433,7 @@
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -2093,7 +2105,7 @@
       <selection activeCell="E6" sqref="E6:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
@@ -2236,7 +2248,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
@@ -2337,7 +2349,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
@@ -2365,7 +2377,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
@@ -2615,7 +2627,7 @@
       <selection activeCell="K4" sqref="K4:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
@@ -2710,10 +2722,10 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -2886,6 +2898,30 @@
       <c r="C15" s="2"/>
       <c r="D15" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -2905,7 +2941,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="71.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2935,13 +2971,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C5"/>
+  <dimension ref="A2:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="65.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2982,6 +3018,14 @@
         <v>115</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Liceo Cristiano.xlsx
+++ b/Liceo Cristiano.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEDENO\Desktop\Fuentes Gato\RPDWEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OBANDO\Desktop\PROYECTOS GITHUB\RPDWEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -904,7 +904,7 @@
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
@@ -1273,7 +1273,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="106.42578125" bestFit="1" customWidth="1"/>
@@ -1351,7 +1351,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="7"/>
@@ -1429,11 +1429,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -2032,7 +2032,7 @@
       <c r="B51" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="7"/>
+      <c r="C51" s="12"/>
       <c r="D51" t="s">
         <v>4</v>
       </c>
@@ -2105,7 +2105,7 @@
       <selection activeCell="E6" sqref="E6:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
@@ -2248,7 +2248,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
@@ -2349,7 +2349,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
@@ -2377,7 +2377,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
@@ -2627,7 +2627,7 @@
       <selection activeCell="K4" sqref="K4:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
@@ -2725,7 +2725,7 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -2941,7 +2941,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="71.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2973,11 +2973,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="65.85546875" bestFit="1" customWidth="1"/>
   </cols>

--- a/Liceo Cristiano.xlsx
+++ b/Liceo Cristiano.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO" sheetId="1" r:id="rId1"/>
@@ -1429,8 +1429,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2102,7 +2102,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2374,7 +2374,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2722,7 +2722,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2973,7 +2973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>

--- a/Liceo Cristiano.xlsx
+++ b/Liceo Cristiano.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="REPORTES" sheetId="11" r:id="rId10"/>
     <sheet name="MIGRACIONES" sheetId="13" r:id="rId11"/>
     <sheet name="Hoja2" sheetId="14" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Hoja2!$B$1:$B$55</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="197">
   <si>
     <t>Agregar la opcion de banco en proveedor</t>
   </si>
@@ -521,13 +522,121 @@
   </si>
   <si>
     <t>Presupuesto</t>
+  </si>
+  <si>
+    <t>Reunión 09/11/2018</t>
+  </si>
+  <si>
+    <t>REQUERIMIENTO DE PRESUPUESTO</t>
+  </si>
+  <si>
+    <t>Mantenimiento de tipo de gastos  "RUBRO DE GASTOS"</t>
+  </si>
+  <si>
+    <t>El usuario ingresara sus peticiones "RUBROS DE GASTOS"</t>
+  </si>
+  <si>
+    <t>LA ing. Revisa el presupuesto de los departamentos, la cual puede ser aprobado o modifica</t>
+  </si>
+  <si>
+    <t>El presupuesto puede ser modificado solo por la Ing. Marjorie Lara, la cual puede ingresar un nuevo presupuesto dentro del periodo del presupuesto</t>
+  </si>
+  <si>
+    <t>El Presupuesto del centro cristiano es anual</t>
+  </si>
+  <si>
+    <t>El presupuesto de liceo cristiano es por periodo lectivo, de marzo a febrero</t>
+  </si>
+  <si>
+    <t>El usuario que solicita el presupuesto no realiza el enlace contable</t>
+  </si>
+  <si>
+    <t>Se debe designar una persona que realice el enlace contable, de los rubros del presupuesto con la cuenta contable, por el lado liceo CPA. Daniel Clavijo y CC CPA Catherine Mejia</t>
+  </si>
+  <si>
+    <t>Los directores de cada area pueden ver el saldo de su presupuesto</t>
+  </si>
+  <si>
+    <t>Reporte de resumen del presupuesto</t>
+  </si>
+  <si>
+    <t>Reporte de presupuesto por departamento</t>
+  </si>
+  <si>
+    <t>REQUERIMIENTOS DE PAGO DE PROFESORES POR ROL</t>
+  </si>
+  <si>
+    <t>El valor de hora de profesores se calcula por mes con un tope de 340 horas con un valor de 2,65</t>
+  </si>
+  <si>
+    <t>Para registrar las hora de los profesores tomar las horas del mes anterios y opcion a editar si es necesario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se compromete a darnos el excel para subir las marcaciones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">generar proceso de horas extras </t>
+  </si>
+  <si>
+    <t>se requiere revision y apobacion de las horas calculadas</t>
+  </si>
+  <si>
+    <t>Archivo .CSV para decimo 3 y decimo 4 para subirlo al ministerio</t>
+  </si>
+  <si>
+    <t>Generacion de archivo txt por variacion de sueldo IESS</t>
+  </si>
+  <si>
+    <t>Los empleados que estan cero no aparecen en la nomina por estar sobregirados</t>
+  </si>
+  <si>
+    <t>los empleados que estan en estado de liquidacion se considera en el mes de pago</t>
+  </si>
+  <si>
+    <t>Analizar si se puede visualizar los roles con el nombre del empleado en cada pagina Primera columna</t>
+  </si>
+  <si>
+    <t>los empleados que tienen ingresos comparttido se procesan normal y en una pantalla se distribuiran los ingresos, cada concepto con sus cuenta contable</t>
+  </si>
+  <si>
+    <t>En la ficha del empleado especificar si el empleado tiene gastos compartidos</t>
+  </si>
+  <si>
+    <t>Reunión 12/11/2018</t>
+  </si>
+  <si>
+    <t>LEVANTAMIENTO DE INFORMACION DE FACTURA POR EVENTOS.</t>
+  </si>
+  <si>
+    <t>Definir en un parametro con que tipo de clientes se crean los clientes nuevos</t>
+  </si>
+  <si>
+    <t>Se recomienda para matriz una clase de cliente para creas los nuevos clientes y contabilizar</t>
+  </si>
+  <si>
+    <t>Especificar el punto de emision en parametros para facturas de eventos</t>
+  </si>
+  <si>
+    <t>definir formas de pagos para facturas</t>
+  </si>
+  <si>
+    <t>especificar en parametros el item que tendra la factura</t>
+  </si>
+  <si>
+    <t>No existe el # de factura en tabla factura el sistema web debe tener parametrizado el punto de emision y establecimiento para las facturas</t>
+  </si>
+  <si>
+    <t>Si el cliente existe, actualizar los campos de las tablas del evento</t>
+  </si>
+  <si>
+    <t>Cuando se pasan las facturas mostras un check que indica si la envio al SRI o no , caso contrario enviar despues de 48 horas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,6 +657,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Swis721 Md BT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Swis721 Md BT"/>
     </font>
   </fonts>
   <fills count="6">
@@ -591,10 +714,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -618,9 +742,24 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -901,10 +1040,10 @@
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
@@ -916,7 +1055,7 @@
     <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>153</v>
       </c>
@@ -936,7 +1075,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="B2" t="s">
         <v>62</v>
       </c>
@@ -945,12 +1084,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="E4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="E5" t="s">
         <v>21</v>
       </c>
@@ -958,7 +1097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="E6" t="s">
         <v>21</v>
       </c>
@@ -966,7 +1105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="E7" t="s">
         <v>21</v>
       </c>
@@ -974,7 +1113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>21</v>
       </c>
@@ -982,12 +1121,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="F9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="F10" t="s">
         <v>18</v>
       </c>
@@ -995,12 +1134,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="F11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>52</v>
       </c>
@@ -1011,7 +1150,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>52</v>
       </c>
@@ -1022,7 +1161,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="F14" s="6" t="s">
         <v>56</v>
       </c>
@@ -1030,12 +1169,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:7">
       <c r="E17" t="s">
         <v>25</v>
       </c>
@@ -1043,7 +1182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:7">
       <c r="E18" t="s">
         <v>25</v>
       </c>
@@ -1051,7 +1190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:7">
       <c r="E19" t="s">
         <v>25</v>
       </c>
@@ -1059,7 +1198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:7">
       <c r="E20" t="s">
         <v>21</v>
       </c>
@@ -1067,7 +1206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:7">
       <c r="E21" t="s">
         <v>21</v>
       </c>
@@ -1075,7 +1214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:7">
       <c r="E22" t="s">
         <v>24</v>
       </c>
@@ -1083,7 +1222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:7">
       <c r="E23" t="s">
         <v>24</v>
       </c>
@@ -1091,7 +1230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:7">
       <c r="E24" t="s">
         <v>28</v>
       </c>
@@ -1099,7 +1238,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:7">
       <c r="E25" t="s">
         <v>28</v>
       </c>
@@ -1107,7 +1246,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:7">
       <c r="F26" t="s">
         <v>27</v>
       </c>
@@ -1115,7 +1254,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:7">
       <c r="F27" t="s">
         <v>30</v>
       </c>
@@ -1123,7 +1262,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:7">
       <c r="F28" t="s">
         <v>32</v>
       </c>
@@ -1131,7 +1270,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:7">
       <c r="E29" t="s">
         <v>50</v>
       </c>
@@ -1142,97 +1281,97 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:7">
       <c r="E31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:7">
       <c r="E32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:7">
       <c r="F33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:7">
       <c r="F34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:7">
       <c r="G35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:7">
       <c r="G36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:7">
       <c r="F37" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:7">
       <c r="F38" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:7">
       <c r="F39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:7">
       <c r="F40" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:7">
       <c r="F41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:7">
       <c r="F42" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:7">
       <c r="F43" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:7">
       <c r="E44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:7">
       <c r="F45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:7">
       <c r="F46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:7">
       <c r="F47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:7">
       <c r="F48" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4">
       <c r="B50" t="s">
         <v>63</v>
       </c>
@@ -1241,7 +1380,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4">
       <c r="B51" t="s">
         <v>63</v>
       </c>
@@ -1250,7 +1389,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4">
       <c r="B52" t="s">
         <v>63</v>
       </c>
@@ -1270,16 +1409,16 @@
   <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -1288,7 +1427,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -1297,7 +1436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -1306,7 +1445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1315,12 +1454,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="C6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -1329,7 +1468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -1351,69 +1490,69 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3">
       <c r="B1" s="7"/>
       <c r="C1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3">
       <c r="B2" s="7"/>
       <c r="C2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="7"/>
       <c r="C3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3">
       <c r="B4" s="7"/>
       <c r="C4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3">
       <c r="B5" s="7"/>
       <c r="C5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="7"/>
       <c r="C6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3">
       <c r="B8" s="7"/>
       <c r="C8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3">
       <c r="B9" s="7"/>
       <c r="C9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3">
       <c r="B10" s="7"/>
       <c r="C10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3">
       <c r="B11" s="7"/>
       <c r="C11" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3">
       <c r="B12" s="7"/>
       <c r="C12" t="s">
         <v>129</v>
@@ -1433,14 +1572,14 @@
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="119.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1">
       <c r="A2" s="8" t="s">
         <v>130</v>
       </c>
@@ -1452,7 +1591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
         <v>130</v>
       </c>
@@ -1464,7 +1603,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
         <v>130</v>
       </c>
@@ -1476,7 +1615,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
         <v>130</v>
       </c>
@@ -1488,7 +1627,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
         <v>131</v>
       </c>
@@ -1500,7 +1639,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
         <v>131</v>
       </c>
@@ -1512,7 +1651,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
         <v>131</v>
       </c>
@@ -1524,7 +1663,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
         <v>131</v>
       </c>
@@ -1536,7 +1675,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
         <v>131</v>
       </c>
@@ -1548,7 +1687,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" hidden="1">
       <c r="A11" s="8" t="s">
         <v>131</v>
       </c>
@@ -1560,7 +1699,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
         <v>80</v>
       </c>
@@ -1572,7 +1711,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
         <v>80</v>
       </c>
@@ -1584,7 +1723,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
         <v>80</v>
       </c>
@@ -1596,7 +1735,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
         <v>80</v>
       </c>
@@ -1608,7 +1747,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1">
       <c r="A16" s="8" t="s">
         <v>132</v>
       </c>
@@ -1620,7 +1759,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
         <v>133</v>
       </c>
@@ -1632,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
         <v>133</v>
       </c>
@@ -1644,7 +1783,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
         <v>133</v>
       </c>
@@ -1656,7 +1795,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
         <v>133</v>
       </c>
@@ -1668,7 +1807,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>133</v>
       </c>
@@ -1680,7 +1819,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
         <v>133</v>
       </c>
@@ -1692,7 +1831,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" hidden="1">
       <c r="A23" s="8" t="s">
         <v>133</v>
       </c>
@@ -1704,7 +1843,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
         <v>133</v>
       </c>
@@ -1716,7 +1855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1">
       <c r="A25" s="8" t="s">
         <v>133</v>
       </c>
@@ -1728,7 +1867,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
         <v>133</v>
       </c>
@@ -1740,7 +1879,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
         <v>134</v>
       </c>
@@ -1752,7 +1891,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" hidden="1">
       <c r="A28" s="8" t="s">
         <v>134</v>
       </c>
@@ -1764,7 +1903,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
         <v>134</v>
       </c>
@@ -1776,7 +1915,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
         <v>134</v>
       </c>
@@ -1788,7 +1927,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" hidden="1">
       <c r="A31" s="8" t="s">
         <v>135</v>
       </c>
@@ -1800,7 +1939,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
         <v>135</v>
       </c>
@@ -1812,7 +1951,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
         <v>135</v>
       </c>
@@ -1824,7 +1963,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1">
       <c r="A34" s="8" t="s">
         <v>135</v>
       </c>
@@ -1836,7 +1975,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1">
       <c r="A35" s="8" t="s">
         <v>135</v>
       </c>
@@ -1845,7 +1984,7 @@
       </c>
       <c r="C35" s="7"/>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1">
       <c r="A36" s="8" t="s">
         <v>135</v>
       </c>
@@ -1857,7 +1996,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="8" t="s">
         <v>135</v>
       </c>
@@ -1869,7 +2008,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="8" t="s">
         <v>135</v>
       </c>
@@ -1881,7 +2020,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" hidden="1">
       <c r="A39" s="8" t="s">
         <v>135</v>
       </c>
@@ -1893,7 +2032,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="8" t="s">
         <v>135</v>
       </c>
@@ -1905,7 +2044,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" hidden="1">
       <c r="A41" s="8" t="s">
         <v>135</v>
       </c>
@@ -1917,7 +2056,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1">
       <c r="A42" s="8" t="s">
         <v>135</v>
       </c>
@@ -1929,7 +2068,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" hidden="1">
       <c r="A43" s="8" t="s">
         <v>135</v>
       </c>
@@ -1941,7 +2080,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" hidden="1">
       <c r="A44" s="8" t="s">
         <v>136</v>
       </c>
@@ -1953,7 +2092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" hidden="1">
       <c r="A45" s="8" t="s">
         <v>136</v>
       </c>
@@ -1965,7 +2104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1">
       <c r="A46" s="8" t="s">
         <v>137</v>
       </c>
@@ -1977,7 +2116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" hidden="1">
       <c r="A47" s="8" t="s">
         <v>137</v>
       </c>
@@ -1989,7 +2128,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" hidden="1">
       <c r="A48" s="8" t="s">
         <v>137</v>
       </c>
@@ -2001,7 +2140,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" hidden="1">
       <c r="A49" s="8" t="s">
         <v>137</v>
       </c>
@@ -2013,7 +2152,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="8" t="s">
         <v>138</v>
       </c>
@@ -2025,7 +2164,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
         <v>138</v>
       </c>
@@ -2037,7 +2176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
         <v>138</v>
       </c>
@@ -2049,7 +2188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="8" t="s">
         <v>138</v>
       </c>
@@ -2061,7 +2200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="8" t="s">
         <v>138</v>
       </c>
@@ -2073,7 +2212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="8" t="s">
         <v>138</v>
       </c>
@@ -2097,15 +2236,222 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="154.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="13"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="15"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Temas tratados" prompt="Enumere los temas tratados para el seguimiento al contrato." sqref="A30:A38"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
@@ -2115,7 +2461,7 @@
     <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>153</v>
       </c>
@@ -2135,7 +2481,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="B2" t="s">
         <v>63</v>
       </c>
@@ -2143,8 +2489,11 @@
       <c r="D2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -2159,12 +2508,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="E4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="B5" t="s">
         <v>63</v>
       </c>
@@ -2173,32 +2522,32 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="E6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="E7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="E8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="E9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="E10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="B11" t="s">
         <v>63</v>
       </c>
@@ -2207,7 +2556,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="B12" t="s">
         <v>63</v>
       </c>
@@ -2216,7 +2565,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="B13" t="s">
         <v>94</v>
       </c>
@@ -2225,13 +2574,13 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="C16" s="1"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3">
       <c r="C18" s="1"/>
     </row>
   </sheetData>
@@ -2245,10 +2594,10 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
@@ -2256,7 +2605,7 @@
     <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>153</v>
       </c>
@@ -2276,7 +2625,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
         <v>63</v>
       </c>
@@ -2285,7 +2634,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="B3" t="s">
         <v>63</v>
       </c>
@@ -2294,7 +2643,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="B4" t="s">
         <v>63</v>
       </c>
@@ -2303,7 +2652,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="B5" t="s">
         <v>63</v>
       </c>
@@ -2312,7 +2661,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="B7" t="s">
         <v>62</v>
       </c>
@@ -2321,17 +2670,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="D8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="D9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="D10" t="s">
         <v>143</v>
       </c>
@@ -2349,13 +2698,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -2374,10 +2723,10 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
@@ -2386,7 +2735,7 @@
     <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>155</v>
       </c>
@@ -2406,7 +2755,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -2430,7 +2779,7 @@
         <v>43411</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -2454,7 +2803,7 @@
         <v>43411</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -2478,7 +2827,7 @@
         <v>43412</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="B5" t="s">
         <v>63</v>
       </c>
@@ -2487,49 +2836,49 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="C6" s="5"/>
       <c r="E6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="C7" s="5"/>
       <c r="E7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="C8" s="5"/>
       <c r="E8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="C9" s="5"/>
       <c r="E9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="C10" s="5"/>
       <c r="E10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="C11" s="5"/>
       <c r="E11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="C12" s="5"/>
       <c r="E12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
         <v>63</v>
       </c>
@@ -2537,8 +2886,11 @@
       <c r="D13" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="10">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14" t="s">
         <v>63</v>
       </c>
@@ -2547,7 +2899,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
         <v>94</v>
       </c>
@@ -2556,7 +2908,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -2571,7 +2923,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="B17" t="s">
         <v>62</v>
       </c>
@@ -2580,7 +2932,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -2596,22 +2948,22 @@
       </c>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="C24" s="5"/>
     </row>
   </sheetData>
@@ -2624,17 +2976,17 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>155</v>
       </c>
@@ -2654,7 +3006,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="B2" t="s">
         <v>63</v>
       </c>
@@ -2664,7 +3016,7 @@
       </c>
       <c r="L2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="B3" t="s">
         <v>94</v>
       </c>
@@ -2673,7 +3025,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -2691,7 +3043,7 @@
         <v>43411</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -2709,7 +3061,7 @@
         <v>43411</v>
       </c>
     </row>
-    <row r="19" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="12:12">
       <c r="L19" s="10"/>
     </row>
   </sheetData>
@@ -2722,17 +3074,17 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>153</v>
       </c>
@@ -2752,7 +3104,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="B2" t="s">
         <v>94</v>
       </c>
@@ -2761,7 +3113,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -2776,7 +3128,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="B4" t="s">
         <v>63</v>
       </c>
@@ -2786,7 +3138,7 @@
       </c>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="B5" t="s">
         <v>94</v>
       </c>
@@ -2795,7 +3147,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="B6" t="s">
         <v>94</v>
       </c>
@@ -2804,7 +3156,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" t="s">
         <v>94</v>
       </c>
@@ -2813,7 +3165,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -2825,7 +3177,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="B9" t="s">
         <v>63</v>
       </c>
@@ -2834,7 +3186,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -2849,7 +3201,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -2864,7 +3216,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="B12" t="s">
         <v>94</v>
       </c>
@@ -2873,7 +3225,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="B13" t="s">
         <v>94</v>
       </c>
@@ -2882,7 +3234,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="B14" t="s">
         <v>94</v>
       </c>
@@ -2891,7 +3243,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="B15" t="s">
         <v>94</v>
       </c>
@@ -2900,7 +3252,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="B16" t="s">
         <v>94</v>
       </c>
@@ -2908,7 +3260,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
         <v>94</v>
       </c>
@@ -2916,7 +3268,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="B18" t="s">
         <v>94</v>
       </c>
@@ -2924,7 +3276,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2">
       <c r="B35" s="5"/>
     </row>
   </sheetData>
@@ -2938,15 +3290,15 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="71.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -2955,7 +3307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -2973,16 +3325,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="65.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -2991,7 +3343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -3000,7 +3352,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -3009,7 +3361,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -3018,7 +3370,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>94</v>
       </c>

--- a/Liceo Cristiano.xlsx
+++ b/Liceo Cristiano.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO" sheetId="1" r:id="rId1"/>
@@ -2447,7 +2447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
@@ -2722,8 +2722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2886,9 +2886,7 @@
       <c r="D13" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="10">
-        <v>43417</v>
-      </c>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" t="s">

--- a/Liceo Cristiano.xlsx
+++ b/Liceo Cristiano.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OBANDO\Desktop\PROYECTOS GITHUB\RPDWEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AROCA\Desktop\Proyectos GitHub\RPDWEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,9 @@
     <sheet name="Sheet1" sheetId="15" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Hoja2!$B$1:$B$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Hoja2!$A$1:$W$68</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="220">
   <si>
     <t>Agregar la opcion de banco en proveedor</t>
   </si>
@@ -377,9 +377,6 @@
     <t>Diario automatico al seleccionar detalle de productos</t>
   </si>
   <si>
-    <t>Levantamiento de informacion para importacion de facturas de venta</t>
-  </si>
-  <si>
     <t>Levantamiento de información para importacion de diario de academico</t>
   </si>
   <si>
@@ -437,9 +434,6 @@
     <t>FACTURACION</t>
   </si>
   <si>
-    <t>BANCOS</t>
-  </si>
-  <si>
     <t>CXP</t>
   </si>
   <si>
@@ -630,22 +624,89 @@
   </si>
   <si>
     <t>Cuando se pasan las facturas mostras un check que indica si la envio al SRI o no , caso contrario enviar despues de 48 horas</t>
+  </si>
+  <si>
+    <t>Semana 1</t>
+  </si>
+  <si>
+    <t>Semana 2</t>
+  </si>
+  <si>
+    <t>Semana 3</t>
+  </si>
+  <si>
+    <t>Crear un descuento si el pago es en efectivo y calcular el cambio</t>
+  </si>
+  <si>
+    <t>que se imprima y se muestre en el RIDE, en la pantalla de factura.</t>
+  </si>
+  <si>
+    <t>Definir con que código que vendrá el biométrico</t>
+  </si>
+  <si>
+    <t>Subida de horas de profesores</t>
+  </si>
+  <si>
+    <t>PRESUPUESTO</t>
+  </si>
+  <si>
+    <t>En la ficha del empleado especificar si el empleado tiene ingresos compartidos</t>
+  </si>
+  <si>
+    <t>Proceso de migración de facturas por evento</t>
+  </si>
+  <si>
+    <t>Proceso de migración de diarios de facturación</t>
+  </si>
+  <si>
+    <t>Proceso de generación el ATS para completar desde otros sistemas</t>
+  </si>
+  <si>
+    <t>MIGRACIONES</t>
+  </si>
+  <si>
+    <t>Poner sucursal a las pantallas ttransaccionales</t>
+  </si>
+  <si>
+    <t>Importacion de marcaciones desde excell</t>
+  </si>
+  <si>
+    <t>Reportes nomina</t>
+  </si>
+  <si>
+    <t>CEDENO</t>
+  </si>
+  <si>
+    <t>ASIGNADO</t>
+  </si>
+  <si>
+    <t>FINALIZADO</t>
+  </si>
+  <si>
+    <t>WENDY</t>
+  </si>
+  <si>
+    <t>REVISAR</t>
+  </si>
+  <si>
+    <t>Validación de periodos</t>
+  </si>
+  <si>
+    <t>MODULO</t>
+  </si>
+  <si>
+    <t>USUARIO</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="9">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -672,8 +733,36 @@
       <sz val="10"/>
       <name val="Swis721 Md BT"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -700,12 +789,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -713,12 +838,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -727,34 +924,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1039,40 +1286,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N1" t="s">
         <v>40</v>
       </c>
       <c r="O1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1412,10 +1659,10 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="106.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
@@ -1424,7 +1671,7 @@
       </c>
       <c r="B2" s="7"/>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1456,7 +1703,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="C6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1490,72 +1737,72 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="7"/>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="7"/>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="7"/>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="7"/>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="7"/>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="7"/>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="7"/>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="7"/>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="7"/>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="7"/>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="7"/>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1565,674 +1812,1686 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A2:D55"/>
+  <dimension ref="A1:X134"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="M46" zoomScale="115" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:W68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="119.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.88671875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="16" customWidth="1"/>
+    <col min="5" max="6" width="11.44140625" style="16"/>
+    <col min="7" max="7" width="11.44140625" style="18"/>
+    <col min="8" max="10" width="11.44140625" style="16"/>
+    <col min="11" max="11" width="11.44140625" style="19"/>
+    <col min="12" max="23" width="11.44140625" style="16"/>
+    <col min="24" max="24" width="11.44140625" style="37"/>
+    <col min="25" max="16384" width="11.44140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" hidden="1">
-      <c r="A2" s="8" t="s">
+    <row r="1" spans="1:23">
+      <c r="E1" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="S1" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="27">
+        <f ca="1">TODAY()+4</f>
+        <v>43423</v>
+      </c>
+      <c r="F2" s="27">
+        <f ca="1">E2+1</f>
+        <v>43424</v>
+      </c>
+      <c r="G2" s="36">
+        <f t="shared" ref="G2:W2" ca="1" si="0">F2+1</f>
+        <v>43425</v>
+      </c>
+      <c r="H2" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>43426</v>
+      </c>
+      <c r="I2" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>43427</v>
+      </c>
+      <c r="J2" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>43428</v>
+      </c>
+      <c r="K2" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>43429</v>
+      </c>
+      <c r="L2" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>43430</v>
+      </c>
+      <c r="M2" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>43431</v>
+      </c>
+      <c r="N2" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>43432</v>
+      </c>
+      <c r="O2" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>43433</v>
+      </c>
+      <c r="P2" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>43434</v>
+      </c>
+      <c r="Q2" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>43435</v>
+      </c>
+      <c r="R2" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>43436</v>
+      </c>
+      <c r="S2" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>43437</v>
+      </c>
+      <c r="T2" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>43438</v>
+      </c>
+      <c r="U2" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>43439</v>
+      </c>
+      <c r="V2" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>43440</v>
+      </c>
+      <c r="W2" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="U3" s="35"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="U4" s="35"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="U5" s="35"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="U6" s="35"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="U7" s="35"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="U8" s="35"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="U9" s="35"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
+      <c r="C10" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="U10" s="35"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="B11" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="U11" s="35"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="B12" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="U12" s="35"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="U13" s="35"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="U14" s="35"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="35"/>
+      <c r="H15" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" s="35"/>
+      <c r="U15" s="35"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" s="35"/>
+      <c r="U16" s="35"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G17" s="35"/>
+      <c r="I17" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" s="35"/>
+      <c r="U17" s="35"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
+      <c r="B18" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="U18" s="35"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8" t="s">
+      <c r="B19" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="U19" s="35"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="8" t="s">
+      <c r="B20" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="U20" s="35"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8" t="s">
+      <c r="B21" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="U21" s="35"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" hidden="1">
-      <c r="A11" s="8" t="s">
+      <c r="B22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="U22" s="35"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B23" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="U23" s="35"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1">
-      <c r="A16" s="8" t="s">
+      <c r="C24" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" s="35"/>
+      <c r="H24" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="N24" s="35"/>
+      <c r="U24" s="35"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="U25" s="35"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G26" s="35"/>
+      <c r="J26" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="N26" s="35"/>
+      <c r="U26" s="35"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" s="35"/>
+      <c r="H27" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N27" s="35"/>
+      <c r="U27" s="35"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B28" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="U28" s="35"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" s="35"/>
+      <c r="N29" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="U29" s="35"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="U30" s="35"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="U31" s="35"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="U32" s="35"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G33" s="35"/>
+      <c r="K33" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="N33" s="35"/>
+      <c r="U33" s="35"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="U34" s="35"/>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="U35" s="35"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="U36" s="35"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="U37" s="35"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="U38" s="35"/>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="G39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="U39" s="35"/>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="G40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="U40" s="35"/>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="U41" s="35"/>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="U42" s="35"/>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="U43" s="35"/>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G44" s="35"/>
+      <c r="H44" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N44" s="35"/>
+      <c r="U44" s="35"/>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="8" t="s">
+      <c r="C45" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G45" s="35"/>
+      <c r="H45" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N45" s="35"/>
+      <c r="U45" s="35"/>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="U46" s="35"/>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="G47" s="35"/>
+      <c r="L47" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N47" s="35"/>
+      <c r="U47" s="35"/>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G48" s="35"/>
+      <c r="I48" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="K48" s="16"/>
+      <c r="N48" s="35"/>
+      <c r="U48" s="35"/>
+    </row>
+    <row r="49" spans="1:24">
+      <c r="A49" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="U49" s="35"/>
+    </row>
+    <row r="50" spans="1:24">
+      <c r="A50" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G50" s="35"/>
+      <c r="I50" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N50" s="35"/>
+      <c r="U50" s="35"/>
+    </row>
+    <row r="51" spans="1:24">
+      <c r="A51" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G51" s="35"/>
+      <c r="I51" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N51" s="35"/>
+      <c r="U51" s="35"/>
+    </row>
+    <row r="52" spans="1:24">
+      <c r="A52" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G52" s="35"/>
+      <c r="J52" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N52" s="35"/>
+      <c r="U52" s="35"/>
+    </row>
+    <row r="53" spans="1:24">
+      <c r="A53" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G53" s="35"/>
+      <c r="J53" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N53" s="35"/>
+      <c r="U53" s="35"/>
+    </row>
+    <row r="54" spans="1:24">
+      <c r="A54" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="8" t="s">
+      <c r="B54" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G54" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="N54" s="35"/>
+      <c r="U54" s="35"/>
+    </row>
+    <row r="55" spans="1:24">
+      <c r="A55" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="8" t="s">
+      <c r="B55" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G55" s="35"/>
+      <c r="H55" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="N55" s="35"/>
+      <c r="U55" s="35"/>
+    </row>
+    <row r="56" spans="1:24">
+      <c r="A56" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="8" t="s">
+      <c r="B56" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G56" s="35"/>
+      <c r="I56" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="N56" s="35"/>
+      <c r="U56" s="35"/>
+    </row>
+    <row r="57" spans="1:24">
+      <c r="A57" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="8" t="s">
+      <c r="B57" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G57" s="35"/>
+      <c r="I57" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="N57" s="35"/>
+      <c r="U57" s="35"/>
+    </row>
+    <row r="58" spans="1:24">
+      <c r="A58" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
+      <c r="B58" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G58" s="35"/>
+      <c r="J58" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="N58" s="35"/>
+      <c r="U58" s="35"/>
+    </row>
+    <row r="59" spans="1:24">
+      <c r="A59" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1">
-      <c r="A23" s="8" t="s">
+      <c r="B59" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G59" s="35"/>
+      <c r="J59" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="N59" s="35"/>
+      <c r="U59" s="35"/>
+    </row>
+    <row r="60" spans="1:24">
+      <c r="A60" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="8" t="s">
+      <c r="B60" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="U60" s="35"/>
+    </row>
+    <row r="61" spans="1:24">
+      <c r="A61" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1">
-      <c r="A25" s="8" t="s">
+      <c r="B61" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G61" s="35"/>
+      <c r="L61" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="N61" s="35"/>
+      <c r="U61" s="35"/>
+    </row>
+    <row r="62" spans="1:24">
+      <c r="A62" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B62" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G62" s="35"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="N62" s="35"/>
+      <c r="U62" s="35"/>
+    </row>
+    <row r="63" spans="1:24">
+      <c r="A63" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G63" s="35"/>
+      <c r="N63" s="35"/>
+      <c r="U63" s="35"/>
+    </row>
+    <row r="64" spans="1:24">
+      <c r="A64" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="G64" s="35"/>
+      <c r="L64" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M64" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N64" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="O64" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P64" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q64" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="S64" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="T64" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="U64" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="V64" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W64" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="X64" s="19"/>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="G65" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="N65" s="35"/>
+      <c r="U65" s="35"/>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="A66" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="D66" s="25"/>
+      <c r="G66" s="35"/>
+      <c r="M66" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="N66" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="O66" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="P66" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q66" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="U66" s="35"/>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D67" s="25"/>
+      <c r="G67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="S67" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1">
-      <c r="A28" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1">
-      <c r="A31" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" hidden="1">
-      <c r="A34" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1">
-      <c r="A35" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" hidden="1">
-      <c r="A36" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B38" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" hidden="1">
-      <c r="A39" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B39" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" hidden="1">
-      <c r="A41" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B41" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" hidden="1">
-      <c r="A42" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B42" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" hidden="1">
-      <c r="A43" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B43" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" hidden="1">
-      <c r="A44" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B44" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" hidden="1">
-      <c r="A45" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="T67" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1">
-      <c r="A46" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" hidden="1">
-      <c r="A47" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="U67" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" hidden="1">
-      <c r="A48" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="V67" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" hidden="1">
-      <c r="A49" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="W67" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B50" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B52" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B55" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="A68" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D68" s="25"/>
+      <c r="G68" s="35"/>
+      <c r="N68" s="35"/>
+      <c r="S68" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="T68" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="U68" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="V68" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="W68" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="G69" s="35"/>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="G70" s="35"/>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="G71" s="35"/>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="G72" s="35"/>
+    </row>
+    <row r="73" spans="1:23">
+      <c r="G73" s="35"/>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="G74" s="35"/>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="G75" s="35"/>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="G76" s="35"/>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="G77" s="35"/>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="G78" s="35"/>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="G79" s="35"/>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="G80" s="35"/>
+    </row>
+    <row r="81" spans="7:7">
+      <c r="G81" s="35"/>
+    </row>
+    <row r="82" spans="7:7">
+      <c r="G82" s="35"/>
+    </row>
+    <row r="83" spans="7:7">
+      <c r="G83" s="35"/>
+    </row>
+    <row r="84" spans="7:7">
+      <c r="G84" s="35"/>
+    </row>
+    <row r="85" spans="7:7">
+      <c r="G85" s="35"/>
+    </row>
+    <row r="86" spans="7:7">
+      <c r="G86" s="35"/>
+    </row>
+    <row r="87" spans="7:7">
+      <c r="G87" s="35"/>
+    </row>
+    <row r="88" spans="7:7">
+      <c r="G88" s="35"/>
+    </row>
+    <row r="89" spans="7:7">
+      <c r="G89" s="35"/>
+    </row>
+    <row r="90" spans="7:7">
+      <c r="G90" s="35"/>
+    </row>
+    <row r="91" spans="7:7">
+      <c r="G91" s="35"/>
+    </row>
+    <row r="92" spans="7:7">
+      <c r="G92" s="35"/>
+    </row>
+    <row r="93" spans="7:7">
+      <c r="G93" s="35"/>
+    </row>
+    <row r="94" spans="7:7">
+      <c r="G94" s="35"/>
+    </row>
+    <row r="95" spans="7:7">
+      <c r="G95" s="35"/>
+    </row>
+    <row r="96" spans="7:7">
+      <c r="G96" s="35"/>
+    </row>
+    <row r="97" spans="7:7">
+      <c r="G97" s="35"/>
+    </row>
+    <row r="98" spans="7:7">
+      <c r="G98" s="35"/>
+    </row>
+    <row r="99" spans="7:7">
+      <c r="G99" s="35"/>
+    </row>
+    <row r="100" spans="7:7">
+      <c r="G100" s="35"/>
+    </row>
+    <row r="101" spans="7:7">
+      <c r="G101" s="35"/>
+    </row>
+    <row r="102" spans="7:7">
+      <c r="G102" s="35"/>
+    </row>
+    <row r="103" spans="7:7">
+      <c r="G103" s="35"/>
+    </row>
+    <row r="104" spans="7:7">
+      <c r="G104" s="35"/>
+    </row>
+    <row r="105" spans="7:7">
+      <c r="G105" s="35"/>
+    </row>
+    <row r="106" spans="7:7">
+      <c r="G106" s="35"/>
+    </row>
+    <row r="107" spans="7:7">
+      <c r="G107" s="35"/>
+    </row>
+    <row r="108" spans="7:7">
+      <c r="G108" s="35"/>
+    </row>
+    <row r="109" spans="7:7">
+      <c r="G109" s="35"/>
+    </row>
+    <row r="110" spans="7:7">
+      <c r="G110" s="35"/>
+    </row>
+    <row r="111" spans="7:7">
+      <c r="G111" s="35"/>
+    </row>
+    <row r="112" spans="7:7">
+      <c r="G112" s="35"/>
+    </row>
+    <row r="113" spans="7:7">
+      <c r="G113" s="35"/>
+    </row>
+    <row r="114" spans="7:7">
+      <c r="G114" s="35"/>
+    </row>
+    <row r="115" spans="7:7">
+      <c r="G115" s="35"/>
+    </row>
+    <row r="116" spans="7:7">
+      <c r="G116" s="35"/>
+    </row>
+    <row r="117" spans="7:7">
+      <c r="G117" s="35"/>
+    </row>
+    <row r="118" spans="7:7">
+      <c r="G118" s="35"/>
+    </row>
+    <row r="119" spans="7:7">
+      <c r="G119" s="35"/>
+    </row>
+    <row r="120" spans="7:7">
+      <c r="G120" s="35"/>
+    </row>
+    <row r="121" spans="7:7">
+      <c r="G121" s="35"/>
+    </row>
+    <row r="122" spans="7:7">
+      <c r="G122" s="35"/>
+    </row>
+    <row r="123" spans="7:7">
+      <c r="G123" s="35"/>
+    </row>
+    <row r="124" spans="7:7">
+      <c r="G124" s="35"/>
+    </row>
+    <row r="125" spans="7:7">
+      <c r="G125" s="35"/>
+    </row>
+    <row r="126" spans="7:7">
+      <c r="G126" s="35"/>
+    </row>
+    <row r="127" spans="7:7">
+      <c r="G127" s="35"/>
+    </row>
+    <row r="128" spans="7:7">
+      <c r="G128" s="35"/>
+    </row>
+    <row r="129" spans="7:7">
+      <c r="G129" s="35"/>
+    </row>
+    <row r="130" spans="7:7">
+      <c r="G130" s="35"/>
+    </row>
+    <row r="131" spans="7:7">
+      <c r="G131" s="35"/>
+    </row>
+    <row r="132" spans="7:7">
+      <c r="G132" s="35"/>
+    </row>
+    <row r="133" spans="7:7">
+      <c r="G133" s="35"/>
+    </row>
+    <row r="134" spans="7:7">
+      <c r="G134" s="35"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B55">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="IOBANDO"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:W68">
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="7" showButton="0"/>
+    <filterColumn colId="8" showButton="0"/>
+    <filterColumn colId="11" showButton="0"/>
+    <filterColumn colId="12" showButton="0"/>
+    <filterColumn colId="13" showButton="0"/>
+    <filterColumn colId="14" showButton="0"/>
+    <filterColumn colId="15" showButton="0"/>
+    <filterColumn colId="18" showButton="0"/>
+    <filterColumn colId="19" showButton="0"/>
+    <filterColumn colId="20" showButton="0"/>
+    <filterColumn colId="21" showButton="0"/>
   </autoFilter>
+  <mergeCells count="3">
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="L1:Q1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2240,199 +3499,199 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="154.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="154.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="14" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="14" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="14" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="14" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="14" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="14" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="14" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="11" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="14" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="11" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="14" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="11" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="14" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="11" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="14" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="10"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="14" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="13"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="15" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="15" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="15" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="15" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="15" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="15" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="15" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="15" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="15" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="15" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="15" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="15" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="12"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="15" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="13" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="15"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="13" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="13" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="16" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="13" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="16" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="13" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="16" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="13" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="16" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="13" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="16" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="14" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="16" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="13" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="17" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="13" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="16" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2451,34 +3710,34 @@
       <selection activeCell="I3" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="78.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="78.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K1" t="s">
         <v>40</v>
       </c>
       <c r="L1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2490,7 +3749,7 @@
         <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2505,7 +3764,7 @@
         <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2551,7 +3810,7 @@
       <c r="B11" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="3" t="s">
         <v>73</v>
       </c>
@@ -2560,7 +3819,7 @@
       <c r="B12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="3" t="s">
         <v>74</v>
       </c>
@@ -2571,7 +3830,7 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2597,32 +3856,32 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="69.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="69.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G1" t="s">
         <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2649,7 +3908,7 @@
       </c>
       <c r="C4" s="7"/>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2672,17 +3931,17 @@
     </row>
     <row r="8" spans="1:8">
       <c r="D8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="D9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="D10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2698,10 +3957,10 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2722,37 +3981,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="89.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="81.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H1" t="s">
         <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2767,15 +4028,15 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G2" s="10">
+        <v>149</v>
+      </c>
+      <c r="G2" s="8">
         <v>43411</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="8">
         <v>43411</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="8">
         <v>43411</v>
       </c>
     </row>
@@ -2791,15 +4052,15 @@
         <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" s="10">
+        <v>149</v>
+      </c>
+      <c r="G3" s="8">
         <v>43411</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="8">
         <v>43411</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="8">
         <v>43411</v>
       </c>
     </row>
@@ -2815,15 +4076,15 @@
         <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" s="10">
+        <v>149</v>
+      </c>
+      <c r="G4" s="8">
         <v>43411</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="8">
         <v>43411</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="8">
         <v>43412</v>
       </c>
     </row>
@@ -2886,7 +4147,7 @@
       <c r="D13" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" t="s">
@@ -2918,7 +4179,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2939,12 +4200,12 @@
       </c>
       <c r="C18" s="7"/>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
-      </c>
-      <c r="G18" s="10"/>
+        <v>154</v>
+      </c>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7">
       <c r="C19" s="5"/>
@@ -2977,42 +4238,42 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M1" t="s">
         <v>40</v>
       </c>
       <c r="N1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="B2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="9"/>
       <c r="D2" t="s">
         <v>95</v>
       </c>
-      <c r="L2" s="10"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:14">
       <c r="B3" t="s">
@@ -3035,9 +4296,9 @@
         <v>97</v>
       </c>
       <c r="K4" t="s">
-        <v>151</v>
-      </c>
-      <c r="L4" s="10">
+        <v>149</v>
+      </c>
+      <c r="L4" s="8">
         <v>43411</v>
       </c>
     </row>
@@ -3053,14 +4314,14 @@
         <v>98</v>
       </c>
       <c r="K5" t="s">
-        <v>151</v>
-      </c>
-      <c r="L5" s="10">
+        <v>149</v>
+      </c>
+      <c r="L5" s="8">
         <v>43411</v>
       </c>
     </row>
     <row r="19" spans="12:12">
-      <c r="L19" s="10"/>
+      <c r="L19" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3075,31 +4336,31 @@
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O1" t="s">
         <v>40</v>
       </c>
       <c r="P1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -3123,18 +4384,18 @@
         <v>100</v>
       </c>
       <c r="M3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="9"/>
       <c r="D4" t="s">
         <v>101</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:16">
       <c r="B5" t="s">
@@ -3196,7 +4457,7 @@
         <v>107</v>
       </c>
       <c r="M10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -3211,7 +4472,7 @@
         <v>108</v>
       </c>
       <c r="M11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -3229,7 +4490,7 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -3238,7 +4499,7 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -3247,7 +4508,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -3255,7 +4516,7 @@
         <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -3263,7 +4524,7 @@
         <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -3271,7 +4532,7 @@
         <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="2:2">
@@ -3291,9 +4552,9 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="71.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3327,9 +4588,9 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
@@ -3347,7 +4608,7 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3356,7 +4617,7 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3365,7 +4626,7 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3373,7 +4634,7 @@
         <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/Liceo Cristiano.xlsx
+++ b/Liceo Cristiano.xlsx
@@ -1814,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M46" zoomScale="115" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:W68"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999"/>
@@ -1874,79 +1874,79 @@
       </c>
       <c r="E2" s="27">
         <f ca="1">TODAY()+4</f>
-        <v>43423</v>
+        <v>43430</v>
       </c>
       <c r="F2" s="27">
         <f ca="1">E2+1</f>
-        <v>43424</v>
+        <v>43431</v>
       </c>
       <c r="G2" s="36">
         <f t="shared" ref="G2:W2" ca="1" si="0">F2+1</f>
-        <v>43425</v>
+        <v>43432</v>
       </c>
       <c r="H2" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>43426</v>
+        <v>43433</v>
       </c>
       <c r="I2" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>43427</v>
+        <v>43434</v>
       </c>
       <c r="J2" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>43428</v>
+        <v>43435</v>
       </c>
       <c r="K2" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>43429</v>
+        <v>43436</v>
       </c>
       <c r="L2" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>43430</v>
+        <v>43437</v>
       </c>
       <c r="M2" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>43431</v>
+        <v>43438</v>
       </c>
       <c r="N2" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>43432</v>
+        <v>43439</v>
       </c>
       <c r="O2" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>43433</v>
+        <v>43440</v>
       </c>
       <c r="P2" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>43434</v>
+        <v>43441</v>
       </c>
       <c r="Q2" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>43435</v>
+        <v>43442</v>
       </c>
       <c r="R2" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>43436</v>
+        <v>43443</v>
       </c>
       <c r="S2" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>43437</v>
+        <v>43444</v>
       </c>
       <c r="T2" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>43438</v>
+        <v>43445</v>
       </c>
       <c r="U2" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>43439</v>
+        <v>43446</v>
       </c>
       <c r="V2" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>43440</v>
+        <v>43447</v>
       </c>
       <c r="W2" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>43441</v>
+        <v>43448</v>
       </c>
     </row>
     <row r="3" spans="1:23">

--- a/Liceo Cristiano.xlsx
+++ b/Liceo Cristiano.xlsx
@@ -27,7 +27,7 @@
     <sheet name="Sheet1" sheetId="15" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Hoja2!$A$1:$W$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Hoja2!$A$2:$X$68</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="219">
   <si>
     <t>Agregar la opcion de banco en proveedor</t>
   </si>
@@ -684,9 +684,6 @@
   </si>
   <si>
     <t>WENDY</t>
-  </si>
-  <si>
-    <t>REVISAR</t>
   </si>
   <si>
     <t>Validación de periodos</t>
@@ -762,7 +759,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -801,12 +798,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -820,12 +811,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,7 +900,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -946,34 +931,17 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -981,11 +949,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -994,7 +962,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1003,6 +971,13 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1812,1678 +1787,1670 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:X134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.88671875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="16" customWidth="1"/>
-    <col min="5" max="6" width="11.44140625" style="16"/>
-    <col min="7" max="7" width="11.44140625" style="18"/>
-    <col min="8" max="10" width="11.44140625" style="16"/>
-    <col min="11" max="11" width="11.44140625" style="19"/>
-    <col min="12" max="23" width="11.44140625" style="16"/>
-    <col min="24" max="24" width="11.44140625" style="37"/>
-    <col min="25" max="16384" width="11.44140625" style="16"/>
+    <col min="1" max="1" width="14.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.88671875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="18" customWidth="1"/>
+    <col min="5" max="6" width="11.44140625" style="15"/>
+    <col min="7" max="7" width="11.44140625" style="17"/>
+    <col min="8" max="10" width="11.44140625" style="15"/>
+    <col min="11" max="11" width="11.44140625" style="18"/>
+    <col min="12" max="23" width="11.44140625" style="15"/>
+    <col min="24" max="24" width="11.44140625" style="30"/>
+    <col min="25" max="16384" width="11.44140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="42" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="S1" s="38" t="s">
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="S1" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="20">
         <f ca="1">TODAY()+4</f>
-        <v>43430</v>
-      </c>
-      <c r="F2" s="27">
+        <v>43448</v>
+      </c>
+      <c r="F2" s="20">
         <f ca="1">E2+1</f>
-        <v>43431</v>
-      </c>
-      <c r="G2" s="36">
+        <v>43449</v>
+      </c>
+      <c r="G2" s="29">
         <f t="shared" ref="G2:W2" ca="1" si="0">F2+1</f>
-        <v>43432</v>
-      </c>
-      <c r="H2" s="27">
+        <v>43450</v>
+      </c>
+      <c r="H2" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>43433</v>
-      </c>
-      <c r="I2" s="27">
+        <v>43451</v>
+      </c>
+      <c r="I2" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>43434</v>
-      </c>
-      <c r="J2" s="27">
+        <v>43452</v>
+      </c>
+      <c r="J2" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>43435</v>
-      </c>
-      <c r="K2" s="28">
+        <v>43453</v>
+      </c>
+      <c r="K2" s="21">
         <f t="shared" ca="1" si="0"/>
-        <v>43436</v>
-      </c>
-      <c r="L2" s="29">
+        <v>43454</v>
+      </c>
+      <c r="L2" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>43437</v>
-      </c>
-      <c r="M2" s="29">
+        <v>43455</v>
+      </c>
+      <c r="M2" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>43438</v>
-      </c>
-      <c r="N2" s="29">
+        <v>43456</v>
+      </c>
+      <c r="N2" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>43439</v>
-      </c>
-      <c r="O2" s="29">
+        <v>43457</v>
+      </c>
+      <c r="O2" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>43440</v>
-      </c>
-      <c r="P2" s="29">
+        <v>43458</v>
+      </c>
+      <c r="P2" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>43441</v>
-      </c>
-      <c r="Q2" s="29">
+        <v>43459</v>
+      </c>
+      <c r="Q2" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>43442</v>
-      </c>
-      <c r="R2" s="28">
+        <v>43460</v>
+      </c>
+      <c r="R2" s="21">
         <f t="shared" ca="1" si="0"/>
-        <v>43443</v>
-      </c>
-      <c r="S2" s="30">
+        <v>43461</v>
+      </c>
+      <c r="S2" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>43444</v>
-      </c>
-      <c r="T2" s="30">
+        <v>43462</v>
+      </c>
+      <c r="T2" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>43445</v>
-      </c>
-      <c r="U2" s="30">
+        <v>43463</v>
+      </c>
+      <c r="U2" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>43446</v>
-      </c>
-      <c r="V2" s="30">
+        <v>43464</v>
+      </c>
+      <c r="V2" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>43447</v>
-      </c>
-      <c r="W2" s="30">
+        <v>43465</v>
+      </c>
+      <c r="W2" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>43448</v>
+        <v>43466</v>
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="U3" s="28"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="U4" s="28"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="U5" s="28"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="U6" s="28"/>
+    </row>
+    <row r="7" spans="1:23" hidden="1">
+      <c r="A7" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="U7" s="28"/>
+    </row>
+    <row r="8" spans="1:23" hidden="1">
+      <c r="A8" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="U8" s="28"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="U9" s="28"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="U3" s="35"/>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="C10" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="U4" s="35"/>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="F10" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="U10" s="28"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="U5" s="35"/>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="F11" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="U11" s="28"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="U6" s="35"/>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="22" t="s">
+      <c r="E12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="U12" s="28"/>
+    </row>
+    <row r="13" spans="1:23" hidden="1">
+      <c r="A13" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="U7" s="35"/>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="22" t="s">
+      <c r="G13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="U13" s="28"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="U14" s="28"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" s="28"/>
+      <c r="U15" s="28"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" s="28"/>
+      <c r="U16" s="28"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="I17" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" s="28"/>
+      <c r="U17" s="28"/>
+    </row>
+    <row r="18" spans="1:21" hidden="1">
+      <c r="A18" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="U8" s="35"/>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="G18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="U18" s="28"/>
+    </row>
+    <row r="19" spans="1:21" hidden="1">
+      <c r="A19" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="U19" s="28"/>
+    </row>
+    <row r="20" spans="1:21" hidden="1">
+      <c r="A20" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="U20" s="28"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="U9" s="35"/>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" s="20" t="s">
+      <c r="E21" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="U21" s="28"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="U22" s="28"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="U23" s="28"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="C24" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="G24" s="28"/>
+      <c r="H24" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="U10" s="35"/>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="20" t="s">
+      <c r="N24" s="28"/>
+      <c r="U24" s="28"/>
+    </row>
+    <row r="25" spans="1:21" hidden="1">
+      <c r="A25" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="U25" s="28"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="32" t="s">
+      <c r="C26" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="G26" s="28"/>
+      <c r="J26" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="U11" s="35"/>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="32" t="s">
+      <c r="N26" s="28"/>
+      <c r="U26" s="28"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="U12" s="35"/>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="22" t="s">
+      <c r="G27" s="28"/>
+      <c r="H27" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N27" s="28"/>
+      <c r="U27" s="28"/>
+    </row>
+    <row r="28" spans="1:21" hidden="1">
+      <c r="A28" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="G13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="U13" s="35"/>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="20" t="s">
+      <c r="G28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="U28" s="28"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" s="28"/>
+      <c r="N29" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="U29" s="28"/>
+    </row>
+    <row r="30" spans="1:21" hidden="1">
+      <c r="A30" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="G30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="U30" s="28"/>
+    </row>
+    <row r="31" spans="1:21" hidden="1">
+      <c r="A31" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="G31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="U31" s="28"/>
+    </row>
+    <row r="32" spans="1:21" hidden="1">
+      <c r="A32" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="G32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="U32" s="28"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G33" s="28"/>
+      <c r="K33" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="N33" s="28"/>
+      <c r="U33" s="28"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="U34" s="28"/>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="U35" s="28"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="U36" s="28"/>
+    </row>
+    <row r="37" spans="1:21" hidden="1">
+      <c r="A37" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="G37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="U37" s="28"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="U38" s="28"/>
+    </row>
+    <row r="39" spans="1:21" hidden="1">
+      <c r="A39" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="G39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="U39" s="28"/>
+    </row>
+    <row r="40" spans="1:21" hidden="1">
+      <c r="A40" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="G40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="U40" s="28"/>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="U41" s="28"/>
+    </row>
+    <row r="42" spans="1:21" hidden="1">
+      <c r="A42" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="G42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="U42" s="28"/>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="U43" s="28"/>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G44" s="28"/>
+      <c r="H44" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N44" s="28"/>
+      <c r="U44" s="28"/>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="C45" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="G45" s="28"/>
+      <c r="H45" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N45" s="28"/>
+      <c r="U45" s="28"/>
+    </row>
+    <row r="46" spans="1:21" hidden="1">
+      <c r="A46" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="U14" s="35"/>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="20" t="s">
+      <c r="C46" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="G46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="U46" s="28"/>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="16" t="s">
+      <c r="C47" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D47" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="16" t="s">
+      <c r="G47" s="28"/>
+      <c r="L47" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N47" s="28"/>
+      <c r="U47" s="28"/>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G48" s="28"/>
+      <c r="I48" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="K48" s="15"/>
+      <c r="N48" s="28"/>
+      <c r="U48" s="28"/>
+    </row>
+    <row r="49" spans="1:24" hidden="1">
+      <c r="A49" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="G49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="U49" s="28"/>
+    </row>
+    <row r="50" spans="1:24">
+      <c r="A50" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G50" s="28"/>
+      <c r="I50" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N50" s="28"/>
+      <c r="U50" s="28"/>
+    </row>
+    <row r="51" spans="1:24">
+      <c r="A51" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G51" s="28"/>
+      <c r="I51" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N51" s="28"/>
+      <c r="U51" s="28"/>
+    </row>
+    <row r="52" spans="1:24">
+      <c r="A52" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G52" s="28"/>
+      <c r="J52" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N52" s="28"/>
+      <c r="U52" s="28"/>
+    </row>
+    <row r="53" spans="1:24">
+      <c r="A53" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G53" s="28"/>
+      <c r="J53" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N53" s="28"/>
+      <c r="U53" s="28"/>
+    </row>
+    <row r="54" spans="1:24">
+      <c r="A54" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N54" s="28"/>
+      <c r="U54" s="28"/>
+    </row>
+    <row r="55" spans="1:24">
+      <c r="A55" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G55" s="28"/>
+      <c r="H55" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N55" s="28"/>
+      <c r="U55" s="28"/>
+    </row>
+    <row r="56" spans="1:24">
+      <c r="A56" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G56" s="28"/>
+      <c r="I56" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="N56" s="28"/>
+      <c r="U56" s="28"/>
+    </row>
+    <row r="57" spans="1:24">
+      <c r="A57" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G57" s="28"/>
+      <c r="I57" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N57" s="28"/>
+      <c r="U57" s="28"/>
+    </row>
+    <row r="58" spans="1:24">
+      <c r="A58" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G58" s="28"/>
+      <c r="J58" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N58" s="28"/>
+      <c r="U58" s="28"/>
+    </row>
+    <row r="59" spans="1:24">
+      <c r="A59" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G59" s="28"/>
+      <c r="J59" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N59" s="28"/>
+      <c r="U59" s="28"/>
+    </row>
+    <row r="60" spans="1:24">
+      <c r="A60" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="U60" s="28"/>
+    </row>
+    <row r="61" spans="1:24">
+      <c r="A61" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G61" s="28"/>
+      <c r="L61" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="N61" s="28"/>
+      <c r="U61" s="28"/>
+    </row>
+    <row r="62" spans="1:24">
+      <c r="A62" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G62" s="28"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N62" s="28"/>
+      <c r="U62" s="28"/>
+    </row>
+    <row r="63" spans="1:24">
+      <c r="A63" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="U63" s="28"/>
+    </row>
+    <row r="64" spans="1:24">
+      <c r="A64" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="G64" s="28"/>
+      <c r="L64" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M64" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N64" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="O64" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P64" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q64" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="S64" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="T64" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="U64" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="V64" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="W64" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="X64" s="18"/>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="G65" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="N65" s="28"/>
+      <c r="U65" s="28"/>
+    </row>
+    <row r="66" spans="1:23" hidden="1">
+      <c r="A66" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D66" s="19"/>
+      <c r="G66" s="28"/>
+      <c r="M66" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N66" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="O66" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="P66" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q66" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="U66" s="28"/>
+    </row>
+    <row r="67" spans="1:23" hidden="1">
+      <c r="A67" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D67" s="19"/>
+      <c r="G67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="S67" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N15" s="35"/>
-      <c r="U15" s="35"/>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="N16" s="35"/>
-      <c r="U16" s="35"/>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="16" t="s">
+      <c r="T67" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G17" s="35"/>
-      <c r="I17" s="16" t="s">
+      <c r="U67" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N17" s="35"/>
-      <c r="U17" s="35"/>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="G18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="U18" s="35"/>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="G19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="U19" s="35"/>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="G20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="U20" s="35"/>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="G21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="U21" s="35"/>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="U22" s="35"/>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="G23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="U23" s="35"/>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="16" t="s">
+      <c r="V67" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="16" t="s">
+      <c r="W67" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N24" s="35"/>
-      <c r="U24" s="35"/>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="A25" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="G25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="U25" s="35"/>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G26" s="35"/>
-      <c r="J26" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="N26" s="35"/>
-      <c r="U26" s="35"/>
-    </row>
-    <row r="27" spans="1:21">
-      <c r="A27" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="N27" s="35"/>
-      <c r="U27" s="35"/>
-    </row>
-    <row r="28" spans="1:21">
-      <c r="A28" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="G28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="U28" s="35"/>
-    </row>
-    <row r="29" spans="1:21">
-      <c r="A29" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G29" s="35"/>
-      <c r="N29" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="U29" s="35"/>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="G30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="U30" s="35"/>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="A31" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="G31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="U31" s="35"/>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="A32" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="G32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="U32" s="35"/>
-    </row>
-    <row r="33" spans="1:21">
-      <c r="A33" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G33" s="35"/>
-      <c r="K33" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="N33" s="35"/>
-      <c r="U33" s="35"/>
-    </row>
-    <row r="34" spans="1:21">
-      <c r="A34" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="U34" s="35"/>
-    </row>
-    <row r="35" spans="1:21">
-      <c r="A35" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="U35" s="35"/>
-    </row>
-    <row r="36" spans="1:21">
-      <c r="A36" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="U36" s="35"/>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="A37" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="G37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="U37" s="35"/>
-    </row>
-    <row r="38" spans="1:21">
-      <c r="A38" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="U38" s="35"/>
-    </row>
-    <row r="39" spans="1:21">
-      <c r="A39" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="G39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="U39" s="35"/>
-    </row>
-    <row r="40" spans="1:21">
-      <c r="A40" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="G40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="U40" s="35"/>
-    </row>
-    <row r="41" spans="1:21">
-      <c r="A41" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="U41" s="35"/>
-    </row>
-    <row r="42" spans="1:21">
-      <c r="A42" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="G42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="U42" s="35"/>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="A43" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="U43" s="35"/>
-    </row>
-    <row r="44" spans="1:21">
-      <c r="A44" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G44" s="35"/>
-      <c r="H44" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="N44" s="35"/>
-      <c r="U44" s="35"/>
-    </row>
-    <row r="45" spans="1:21">
-      <c r="A45" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G45" s="35"/>
-      <c r="H45" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="N45" s="35"/>
-      <c r="U45" s="35"/>
-    </row>
-    <row r="46" spans="1:21">
-      <c r="A46" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="G46" s="35"/>
-      <c r="N46" s="35"/>
-      <c r="U46" s="35"/>
-    </row>
-    <row r="47" spans="1:21">
-      <c r="A47" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="G47" s="35"/>
-      <c r="L47" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="N47" s="35"/>
-      <c r="U47" s="35"/>
-    </row>
-    <row r="48" spans="1:21">
-      <c r="A48" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G48" s="35"/>
-      <c r="I48" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="K48" s="16"/>
-      <c r="N48" s="35"/>
-      <c r="U48" s="35"/>
-    </row>
-    <row r="49" spans="1:24">
-      <c r="A49" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="G49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="U49" s="35"/>
-    </row>
-    <row r="50" spans="1:24">
-      <c r="A50" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G50" s="35"/>
-      <c r="I50" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="N50" s="35"/>
-      <c r="U50" s="35"/>
-    </row>
-    <row r="51" spans="1:24">
-      <c r="A51" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G51" s="35"/>
-      <c r="I51" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="N51" s="35"/>
-      <c r="U51" s="35"/>
-    </row>
-    <row r="52" spans="1:24">
-      <c r="A52" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G52" s="35"/>
-      <c r="J52" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="N52" s="35"/>
-      <c r="U52" s="35"/>
-    </row>
-    <row r="53" spans="1:24">
-      <c r="A53" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G53" s="35"/>
-      <c r="J53" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="N53" s="35"/>
-      <c r="U53" s="35"/>
-    </row>
-    <row r="54" spans="1:24">
-      <c r="A54" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G54" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="H54" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="N54" s="35"/>
-      <c r="U54" s="35"/>
-    </row>
-    <row r="55" spans="1:24">
-      <c r="A55" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G55" s="35"/>
-      <c r="H55" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="N55" s="35"/>
-      <c r="U55" s="35"/>
-    </row>
-    <row r="56" spans="1:24">
-      <c r="A56" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G56" s="35"/>
-      <c r="I56" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="N56" s="35"/>
-      <c r="U56" s="35"/>
-    </row>
-    <row r="57" spans="1:24">
-      <c r="A57" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G57" s="35"/>
-      <c r="I57" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="N57" s="35"/>
-      <c r="U57" s="35"/>
-    </row>
-    <row r="58" spans="1:24">
-      <c r="A58" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G58" s="35"/>
-      <c r="J58" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="N58" s="35"/>
-      <c r="U58" s="35"/>
-    </row>
-    <row r="59" spans="1:24">
-      <c r="A59" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G59" s="35"/>
-      <c r="J59" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="N59" s="35"/>
-      <c r="U59" s="35"/>
-    </row>
-    <row r="60" spans="1:24">
-      <c r="A60" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G60" s="35"/>
-      <c r="N60" s="35"/>
-      <c r="U60" s="35"/>
-    </row>
-    <row r="61" spans="1:24">
-      <c r="A61" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G61" s="35"/>
-      <c r="L61" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="N61" s="35"/>
-      <c r="U61" s="35"/>
-    </row>
-    <row r="62" spans="1:24">
-      <c r="A62" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G62" s="35"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="N62" s="35"/>
-      <c r="U62" s="35"/>
-    </row>
-    <row r="63" spans="1:24">
-      <c r="A63" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="D63" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G63" s="35"/>
-      <c r="N63" s="35"/>
-      <c r="U63" s="35"/>
-    </row>
-    <row r="64" spans="1:24">
-      <c r="A64" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="G64" s="35"/>
-      <c r="L64" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="M64" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="N64" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="O64" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="P64" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q64" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="S64" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="T64" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="U64" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="V64" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W64" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="X64" s="19"/>
-    </row>
-    <row r="65" spans="1:23">
-      <c r="A65" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="G65" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="N65" s="35"/>
-      <c r="U65" s="35"/>
-    </row>
-    <row r="66" spans="1:23">
-      <c r="A66" s="15" t="s">
+    </row>
+    <row r="68" spans="1:23" hidden="1">
+      <c r="A68" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C66" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="D66" s="25"/>
-      <c r="G66" s="35"/>
-      <c r="M66" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="N66" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="O66" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="P66" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q66" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="U66" s="35"/>
-    </row>
-    <row r="67" spans="1:23">
-      <c r="A67" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="D67" s="25"/>
-      <c r="G67" s="35"/>
-      <c r="N67" s="35"/>
-      <c r="S67" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="T67" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="U67" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="V67" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="W67" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23">
-      <c r="A68" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="D68" s="25"/>
-      <c r="G68" s="35"/>
-      <c r="N68" s="35"/>
-      <c r="S68" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="T68" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="U68" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="V68" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="W68" s="16" t="s">
+      <c r="D68" s="19"/>
+      <c r="G68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="S68" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="T68" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="U68" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="V68" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="W68" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:23">
-      <c r="G69" s="35"/>
+      <c r="G69" s="28"/>
     </row>
     <row r="70" spans="1:23">
-      <c r="G70" s="35"/>
+      <c r="G70" s="28"/>
     </row>
     <row r="71" spans="1:23">
-      <c r="G71" s="35"/>
+      <c r="G71" s="28"/>
     </row>
     <row r="72" spans="1:23">
-      <c r="G72" s="35"/>
+      <c r="G72" s="28"/>
     </row>
     <row r="73" spans="1:23">
-      <c r="G73" s="35"/>
+      <c r="G73" s="28"/>
     </row>
     <row r="74" spans="1:23">
-      <c r="G74" s="35"/>
+      <c r="G74" s="28"/>
     </row>
     <row r="75" spans="1:23">
-      <c r="G75" s="35"/>
+      <c r="G75" s="28"/>
     </row>
     <row r="76" spans="1:23">
-      <c r="G76" s="35"/>
+      <c r="G76" s="28"/>
     </row>
     <row r="77" spans="1:23">
-      <c r="G77" s="35"/>
+      <c r="G77" s="28"/>
     </row>
     <row r="78" spans="1:23">
-      <c r="G78" s="35"/>
+      <c r="G78" s="28"/>
     </row>
     <row r="79" spans="1:23">
-      <c r="G79" s="35"/>
+      <c r="G79" s="28"/>
     </row>
     <row r="80" spans="1:23">
-      <c r="G80" s="35"/>
+      <c r="G80" s="28"/>
     </row>
     <row r="81" spans="7:7">
-      <c r="G81" s="35"/>
+      <c r="G81" s="28"/>
     </row>
     <row r="82" spans="7:7">
-      <c r="G82" s="35"/>
+      <c r="G82" s="28"/>
     </row>
     <row r="83" spans="7:7">
-      <c r="G83" s="35"/>
+      <c r="G83" s="28"/>
     </row>
     <row r="84" spans="7:7">
-      <c r="G84" s="35"/>
+      <c r="G84" s="28"/>
     </row>
     <row r="85" spans="7:7">
-      <c r="G85" s="35"/>
+      <c r="G85" s="28"/>
     </row>
     <row r="86" spans="7:7">
-      <c r="G86" s="35"/>
+      <c r="G86" s="28"/>
     </row>
     <row r="87" spans="7:7">
-      <c r="G87" s="35"/>
+      <c r="G87" s="28"/>
     </row>
     <row r="88" spans="7:7">
-      <c r="G88" s="35"/>
+      <c r="G88" s="28"/>
     </row>
     <row r="89" spans="7:7">
-      <c r="G89" s="35"/>
+      <c r="G89" s="28"/>
     </row>
     <row r="90" spans="7:7">
-      <c r="G90" s="35"/>
+      <c r="G90" s="28"/>
     </row>
     <row r="91" spans="7:7">
-      <c r="G91" s="35"/>
+      <c r="G91" s="28"/>
     </row>
     <row r="92" spans="7:7">
-      <c r="G92" s="35"/>
+      <c r="G92" s="28"/>
     </row>
     <row r="93" spans="7:7">
-      <c r="G93" s="35"/>
+      <c r="G93" s="28"/>
     </row>
     <row r="94" spans="7:7">
-      <c r="G94" s="35"/>
+      <c r="G94" s="28"/>
     </row>
     <row r="95" spans="7:7">
-      <c r="G95" s="35"/>
+      <c r="G95" s="28"/>
     </row>
     <row r="96" spans="7:7">
-      <c r="G96" s="35"/>
+      <c r="G96" s="28"/>
     </row>
     <row r="97" spans="7:7">
-      <c r="G97" s="35"/>
+      <c r="G97" s="28"/>
     </row>
     <row r="98" spans="7:7">
-      <c r="G98" s="35"/>
+      <c r="G98" s="28"/>
     </row>
     <row r="99" spans="7:7">
-      <c r="G99" s="35"/>
+      <c r="G99" s="28"/>
     </row>
     <row r="100" spans="7:7">
-      <c r="G100" s="35"/>
+      <c r="G100" s="28"/>
     </row>
     <row r="101" spans="7:7">
-      <c r="G101" s="35"/>
+      <c r="G101" s="28"/>
     </row>
     <row r="102" spans="7:7">
-      <c r="G102" s="35"/>
+      <c r="G102" s="28"/>
     </row>
     <row r="103" spans="7:7">
-      <c r="G103" s="35"/>
+      <c r="G103" s="28"/>
     </row>
     <row r="104" spans="7:7">
-      <c r="G104" s="35"/>
+      <c r="G104" s="28"/>
     </row>
     <row r="105" spans="7:7">
-      <c r="G105" s="35"/>
+      <c r="G105" s="28"/>
     </row>
     <row r="106" spans="7:7">
-      <c r="G106" s="35"/>
+      <c r="G106" s="28"/>
     </row>
     <row r="107" spans="7:7">
-      <c r="G107" s="35"/>
+      <c r="G107" s="28"/>
     </row>
     <row r="108" spans="7:7">
-      <c r="G108" s="35"/>
+      <c r="G108" s="28"/>
     </row>
     <row r="109" spans="7:7">
-      <c r="G109" s="35"/>
+      <c r="G109" s="28"/>
     </row>
     <row r="110" spans="7:7">
-      <c r="G110" s="35"/>
+      <c r="G110" s="28"/>
     </row>
     <row r="111" spans="7:7">
-      <c r="G111" s="35"/>
+      <c r="G111" s="28"/>
     </row>
     <row r="112" spans="7:7">
-      <c r="G112" s="35"/>
+      <c r="G112" s="28"/>
     </row>
     <row r="113" spans="7:7">
-      <c r="G113" s="35"/>
+      <c r="G113" s="28"/>
     </row>
     <row r="114" spans="7:7">
-      <c r="G114" s="35"/>
+      <c r="G114" s="28"/>
     </row>
     <row r="115" spans="7:7">
-      <c r="G115" s="35"/>
+      <c r="G115" s="28"/>
     </row>
     <row r="116" spans="7:7">
-      <c r="G116" s="35"/>
+      <c r="G116" s="28"/>
     </row>
     <row r="117" spans="7:7">
-      <c r="G117" s="35"/>
+      <c r="G117" s="28"/>
     </row>
     <row r="118" spans="7:7">
-      <c r="G118" s="35"/>
+      <c r="G118" s="28"/>
     </row>
     <row r="119" spans="7:7">
-      <c r="G119" s="35"/>
+      <c r="G119" s="28"/>
     </row>
     <row r="120" spans="7:7">
-      <c r="G120" s="35"/>
+      <c r="G120" s="28"/>
     </row>
     <row r="121" spans="7:7">
-      <c r="G121" s="35"/>
+      <c r="G121" s="28"/>
     </row>
     <row r="122" spans="7:7">
-      <c r="G122" s="35"/>
+      <c r="G122" s="28"/>
     </row>
     <row r="123" spans="7:7">
-      <c r="G123" s="35"/>
+      <c r="G123" s="28"/>
     </row>
     <row r="124" spans="7:7">
-      <c r="G124" s="35"/>
+      <c r="G124" s="28"/>
     </row>
     <row r="125" spans="7:7">
-      <c r="G125" s="35"/>
+      <c r="G125" s="28"/>
     </row>
     <row r="126" spans="7:7">
-      <c r="G126" s="35"/>
+      <c r="G126" s="28"/>
     </row>
     <row r="127" spans="7:7">
-      <c r="G127" s="35"/>
+      <c r="G127" s="28"/>
     </row>
     <row r="128" spans="7:7">
-      <c r="G128" s="35"/>
+      <c r="G128" s="28"/>
     </row>
     <row r="129" spans="7:7">
-      <c r="G129" s="35"/>
+      <c r="G129" s="28"/>
     </row>
     <row r="130" spans="7:7">
-      <c r="G130" s="35"/>
+      <c r="G130" s="28"/>
     </row>
     <row r="131" spans="7:7">
-      <c r="G131" s="35"/>
+      <c r="G131" s="28"/>
     </row>
     <row r="132" spans="7:7">
-      <c r="G132" s="35"/>
+      <c r="G132" s="28"/>
     </row>
     <row r="133" spans="7:7">
-      <c r="G133" s="35"/>
+      <c r="G133" s="28"/>
     </row>
     <row r="134" spans="7:7">
-      <c r="G134" s="35"/>
+      <c r="G134" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W68">
-    <filterColumn colId="4" showButton="0"/>
-    <filterColumn colId="5" showButton="0"/>
-    <filterColumn colId="6" showButton="0"/>
-    <filterColumn colId="7" showButton="0"/>
-    <filterColumn colId="8" showButton="0"/>
-    <filterColumn colId="11" showButton="0"/>
-    <filterColumn colId="12" showButton="0"/>
-    <filterColumn colId="13" showButton="0"/>
-    <filterColumn colId="14" showButton="0"/>
-    <filterColumn colId="15" showButton="0"/>
-    <filterColumn colId="18" showButton="0"/>
-    <filterColumn colId="19" showButton="0"/>
-    <filterColumn colId="20" showButton="0"/>
-    <filterColumn colId="21" showButton="0"/>
+  <autoFilter ref="A2:X68">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="ASIGNADO"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="S1:W1"/>
